--- a/file_checks/dataset_X_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/dataset_X_correct_genes_rogue_pheno.xlsx
@@ -566,502 +566,502 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">0.257272111909392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.70506520350592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.701630188180613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.27716194509825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.680202108418591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624387167645199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3142355226368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.0000786897367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96474513190005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.20302422306732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00118103297283243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.81436151758852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75696299282054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0816591866860392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22984362998632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.973425441411515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.8422122422387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511924649424211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.186918571765968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.60836526470974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1845073075017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3886215099291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.20458820679903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.33473958714963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662826907829805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.06829495465706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.764518587971851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0889725816646939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40150511092933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.982621686118906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0864712797388888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.852289165310774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.382883556189002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.178894295217771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.408839809371129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.136669845418225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.69605844451666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0114823020578119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.260978717455768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.331474249088485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.179030879730938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.262400157320249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.936256087841403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.659367581796933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863710595382316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.814440084642813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0190820847047365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01906096592198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12085819707352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.331939395339004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.411453106585568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126152579673525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.174234160515857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43567604241705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.511447223458926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.624333417593308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0798285608850971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.565982193269353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.884941635277046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.381248155584103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638026146462678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596491476000297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193108572454723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.136956769379905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46746436534826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.22677468247474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163596872591635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46935275288383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.755512402991663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.121710302768505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.303461837893023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.696303201979095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64578268298091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.626739532214477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.826035267157362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999746906368085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30287322531137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53552729199781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.616938876290523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.48700191491415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.523613828965799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.691164497630598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.600160726497961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29556730176006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0309174578520138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0412032476547788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.277820853722496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.70280244707452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46518906341099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.122194439726574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03341303301002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.406643926574644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.391375716746901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.632692145359471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.422755948638403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.219515162255144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91486372256486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15260349159804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.52065135084008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82749072314185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.765465858841654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01036559340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.788069755619274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.641628605897831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.579182202453831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.162898781232887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57909382781861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0205696637836447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698419821270102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.589930801124934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.02824952212559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.975813637997117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.545301010538853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32191677453456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0487372465569193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42454748719802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02785176781934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.416787309173477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.559393082820538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.301507737190112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17464011005961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.282188691374634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.100773235215941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.542146426538831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319363277654992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.325079128312969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23781059256645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00310531044447193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.149023827155137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.069387045831211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.00489253335381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0388886622119366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.577724931942403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.394653316645811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.01731891151167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.901635871735335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.07135774330064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288795184918429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.479635500484472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.30873275786226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0387857932258193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.244337248464189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42450802151357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0455084693267156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.20561585182567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.638658323417416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506628986467551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.188055832330196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0885381360758781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.59902363538706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.12835123427611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319908984565982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.38251719988944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.948440885941116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.784542376614421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07831202411441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63613422158865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952175966837141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.214147355713143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10916437152028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22154401367319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385584468987642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.599625101339094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.362591213918883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0501734749044043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.042952145990884</t>
+    <t xml:space="preserve">-0.238181116312966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.41314683015403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2249954252961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31102125675077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.407186844384592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.920408080737211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0346160628281768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.4507051324704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80275404936046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00834051360164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.839982401820116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.737526395445807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.11943025528976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41136563426858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.396964823105728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.311811663890154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.228977741067558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.2472209725721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036580383871068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0281686473498401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.923486764074052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.198019517317595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.421835113506632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.771020177892877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.103686294129341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73352567119257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.256831054901958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.455393488362193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664593319147287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.385388783127799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39630506945168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.959306248848051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.586551292794213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.520916284699861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.905627887683216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.17274858324354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.74204810257274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.245598125934343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.836508588289907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685634427467084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231583044261098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.145929731878176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.27080970138171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.19211065342876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0538664185327851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5359577669109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.895156099678471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350003511014937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0847402446076645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.585853952398961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.150745402528715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.676440088193818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0897203608536466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271820983262691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.521844069160063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.736013284927323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.740434145627333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.47409127321114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.91288158958059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.190355535269094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.07340373796002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.856503309851035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.939298711698679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.99514889230116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688236628423482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.290774426135221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.158505958394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.589546470175833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.145047315912382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.227783011751298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.663912454016504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02890678129347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.867871014507797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0627857050554948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.21068543923471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953575815109719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647473895030988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.748687774134829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.405463288185576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26190974105909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.462392121470707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.465612880516763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.477141632501063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96828086369195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911350339435826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0211767819882914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.563170223422106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471951846874719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.870312115540793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73281882928656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45144590396025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.33629088560307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22282871158443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.07613220204595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.18177696216717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.939040432678757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.648788837446992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.39646633787849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.588359927602529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14169682431652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.693128583860614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.677379403365244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.442629398880166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09512451563481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.934417113196103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82983031319085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.625838245622922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.550478292710708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.865206578973606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.37117055032867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21333240251014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.620052883817587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0894981457594708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2024782482004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00861073080742976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.857132225896359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.443683604693627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.698542732458532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.323454641733971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328653968484667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0719039195326421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.611799919473134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.863212162076975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.147787636864459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50156418598505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49103921539878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.20357033086028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.254047352822541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.766251686518498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.382597150333818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.226598237237174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.8076688675483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.635791890229234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.178780272072956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35682426261662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.793599598969381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18509127449658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.513232920627244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.998525220011818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0117231197586995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05747856264875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.230746113123847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.129594395951798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.529411588300206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1861095534523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.231278106018836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0953949062725574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.916641738887348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.70383322928756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.454546844735598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.482998903142753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.38084788156381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26072004967104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81459547831976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.190822895020828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.759983433107003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.427456878009255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0382661327893205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645762575325797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71222647113282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.386417721426821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250413919084713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.855170977692027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20305225802039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.303491276663765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.980771018352712</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
@@ -2462,16 +2462,16 @@
         <v>350</v>
       </c>
       <c r="FM2" t="s">
+        <v>351</v>
+      </c>
+      <c r="FN2" t="s">
         <v>350</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="FO2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FP2" t="s">
         <v>351</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>351</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>350</v>
       </c>
       <c r="FQ2" t="s">
         <v>351</v>
@@ -2480,28 +2480,28 @@
         <v>351</v>
       </c>
       <c r="FS2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FT2" t="s">
         <v>350</v>
       </c>
       <c r="FU2" t="s">
+        <v>351</v>
+      </c>
+      <c r="FV2" t="s">
         <v>350</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="FW2" t="s">
+        <v>350</v>
+      </c>
+      <c r="FX2" t="s">
         <v>351</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>351</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>350</v>
       </c>
       <c r="FY2" t="s">
         <v>350</v>
       </c>
       <c r="FZ2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="GA2" t="s">
         <v>351</v>
@@ -3016,16 +3016,16 @@
         <v>350</v>
       </c>
       <c r="FM3" t="s">
+        <v>351</v>
+      </c>
+      <c r="FN3" t="s">
         <v>350</v>
       </c>
-      <c r="FN3" t="s">
+      <c r="FO3" t="s">
+        <v>350</v>
+      </c>
+      <c r="FP3" t="s">
         <v>351</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>351</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>350</v>
       </c>
       <c r="FQ3" t="s">
         <v>351</v>
@@ -3034,28 +3034,28 @@
         <v>351</v>
       </c>
       <c r="FS3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FT3" t="s">
         <v>350</v>
       </c>
       <c r="FU3" t="s">
+        <v>351</v>
+      </c>
+      <c r="FV3" t="s">
         <v>350</v>
       </c>
-      <c r="FV3" t="s">
+      <c r="FW3" t="s">
+        <v>350</v>
+      </c>
+      <c r="FX3" t="s">
         <v>351</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>351</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>350</v>
       </c>
       <c r="FY3" t="s">
         <v>350</v>
       </c>
       <c r="FZ3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="GA3" t="s">
         <v>351</v>
@@ -3570,16 +3570,16 @@
         <v>350</v>
       </c>
       <c r="FM4" t="s">
+        <v>351</v>
+      </c>
+      <c r="FN4" t="s">
         <v>350</v>
       </c>
-      <c r="FN4" t="s">
+      <c r="FO4" t="s">
+        <v>350</v>
+      </c>
+      <c r="FP4" t="s">
         <v>351</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>351</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>350</v>
       </c>
       <c r="FQ4" t="s">
         <v>351</v>
@@ -3588,28 +3588,28 @@
         <v>351</v>
       </c>
       <c r="FS4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="FT4" t="s">
         <v>350</v>
       </c>
       <c r="FU4" t="s">
+        <v>351</v>
+      </c>
+      <c r="FV4" t="s">
         <v>350</v>
       </c>
-      <c r="FV4" t="s">
+      <c r="FW4" t="s">
+        <v>350</v>
+      </c>
+      <c r="FX4" t="s">
         <v>351</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>351</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>350</v>
       </c>
       <c r="FY4" t="s">
         <v>350</v>
       </c>
       <c r="FZ4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="GA4" t="s">
         <v>351</v>

--- a/file_checks/dataset_X_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/dataset_X_correct_genes_rogue_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">X_1017</t>
   </si>
@@ -563,511 +563,520 @@
     <t xml:space="preserve">rorS_risk_high</t>
   </si>
   <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.238181116312966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.41314683015403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2249954252961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31102125675077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.407186844384592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.920408080737211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0346160628281768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.4507051324704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80275404936046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00834051360164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.839982401820116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.737526395445807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.11943025528976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41136563426858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.396964823105728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.311811663890154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.228977741067558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.2472209725721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.036580383871068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0281686473498401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.923486764074052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.198019517317595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.421835113506632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.771020177892877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103686294129341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73352567119257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.256831054901958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.455393488362193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.664593319147287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385388783127799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.39630506945168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.959306248848051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.586551292794213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.520916284699861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.905627887683216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17274858324354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.74204810257274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.245598125934343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836508588289907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.685634427467084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231583044261098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.145929731878176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.27080970138171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.19211065342876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0538664185327851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5359577669109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.895156099678471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350003511014937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0847402446076645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.585853952398961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.150745402528715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.676440088193818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0897203608536466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271820983262691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.521844069160063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.736013284927323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.740434145627333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.47409127321114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.91288158958059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.190355535269094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.07340373796002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.856503309851035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.939298711698679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.99514889230116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688236628423482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.290774426135221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.158505958394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.589546470175833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.145047315912382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.227783011751298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.663912454016504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02890678129347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.867871014507797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0627857050554948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.21068543923471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953575815109719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.647473895030988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.748687774134829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.405463288185576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.26190974105909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.462392121470707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.465612880516763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.477141632501063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96828086369195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911350339435826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0211767819882914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.563170223422106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471951846874719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.870312115540793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73281882928656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.45144590396025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.33629088560307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22282871158443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.07613220204595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.18177696216717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.939040432678757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.648788837446992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.39646633787849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.588359927602529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14169682431652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.693128583860614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.677379403365244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.442629398880166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09512451563481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.934417113196103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82983031319085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.625838245622922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.550478292710708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.865206578973606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.37117055032867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.21333240251014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.620052883817587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0894981457594708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2024782482004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00861073080742976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.857132225896359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.443683604693627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.698542732458532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.323454641733971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328653968484667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0719039195326421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.611799919473134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.863212162076975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.147787636864459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50156418598505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49103921539878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.20357033086028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.254047352822541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.766251686518498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.382597150333818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.226598237237174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.8076688675483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.635791890229234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.178780272072956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35682426261662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.793599598969381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18509127449658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.513232920627244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.998525220011818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0117231197586995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05747856264875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.230746113123847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.129594395951798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.529411588300206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1861095534523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.231278106018836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0953949062725574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.916641738887348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.70383322928756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.454546844735598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.482998903142753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.38084788156381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.26072004967104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81459547831976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.190822895020828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.759983433107003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.427456878009255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0382661327893205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645762575325797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71222647113282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.386417721426821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.250413919084713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.855170977692027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.20305225802039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.303491276663765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.980771018352712</t>
+    <t xml:space="preserve">-0.160454641548533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.700412607687934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.456221897490292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15997362105971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.506754742574595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12476516522335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.989361909544907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02969920850163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98718629947706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.182705937361383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.589088256427284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72903382664636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.779952073190096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500433758228021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54576035100544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40083284099069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94697238265472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.917098982016234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.181984427657983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.08160502772736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73546769485803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.782622128042733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0800244782449046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.3569298519601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.854765844527384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46592346182274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94706548263316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.780226179791239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.120457562273696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.602070821194561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.03228158162028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.271324574045093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125814544572731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.880542362819425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.461934693280525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.299828033889189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.816685780504997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.66665362307098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330501980524451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.402392981456595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.239337613531927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.529645860525122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.32590467575017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.95342729796313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.193820171753626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10670826102566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.826877749787276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.414059504376237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0079065968391317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.572589910162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.734559022699293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.260400612536192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.843046483343338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.493309768894383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.602018621850943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.662918101187158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165640012795386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.766428591261632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.976431584694573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.739463990891291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.492846821648536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.596660378594127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.596756461581086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40757929246243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.114072532403761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.186931748743105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911046365992587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18001997568401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.49262803639435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.962007180561844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.651467380639561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93964086662155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01504633231481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.628355366627129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00670224995189028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.707503891888858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.101883941482574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.440963402082454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.62366953197683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.280218366470803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.631942761249082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00222427399385007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29127868257208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261547289351993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14965715647245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26147779371317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14485145118092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007719652069361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.101261680856059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.584700944843619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.60506313629644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.947791732924676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.756112879280422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.373423315218256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.27424270683082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.155615187650498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.772491710559799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.423128248611173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4767600169377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8867404876396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.338786578680999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.46514707577196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.325688821652429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0257089518273515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.754998238586221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5216865448441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.37977136906624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.545724114513871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.340835856728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00759294055781894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40593949664066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.234032119640689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.236904581014046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.163239789988599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.632296587576652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589324552456121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.799506557830052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04019200984038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.309495137064811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459579437166575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.657109787093216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05934241812634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.307693468584344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.636767477427584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645609080025936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42304871516195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.346512435377349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.449314146275516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.881422776210636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.367729936633287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.763828953442881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.756261114038681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.271206646581618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00712278034997182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.509072576549646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.468473623043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.71811187360783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773160932801221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.323449852391274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.57179910121717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.528646037398849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501602519671155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33439537266308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78075221270227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.47423440585505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.172782329541043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.53966468026332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.783256358841745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0418052906523054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905594080237882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.97565512398668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.296993749300311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.596351278186186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.319990117218308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.06519703624199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80810234594594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.32521945488044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0163125921702485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.196709728177085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.28899129155809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.905654568237779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.168204732470544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.81651424297937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18062907223771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59038533937731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1470149702741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">Aris</t>
@@ -1955,1667 +1964,1703 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR2" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED2" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FM2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FN2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FO2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FP2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FQ2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FR2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FS2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FT2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FU2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FV2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FW2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FX2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FZ2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GA2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GB2" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>354</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>354</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ3" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV3" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW3" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY3" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ3" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC3" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI3" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FM3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FN3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FO3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FP3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FQ3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FR3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FS3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FT3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FU3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FV3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FW3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FX3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FZ3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GA3" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GB3" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>354</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>354</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="R4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="T4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AA4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AB4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AC4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AD4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AI4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AJ4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AK4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AL4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AM4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AN4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AO4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AP4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AQ4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AR4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AS4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AT4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AU4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AV4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AW4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AX4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AY4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AZ4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BA4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="BB4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BC4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BD4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="BE4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="BF4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="BG4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BH4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="BI4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="BJ4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="BK4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BL4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="BM4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="BN4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BO4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BP4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BQ4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="BR4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BS4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="BT4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="BU4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="BV4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BW4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BX4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="BY4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="BZ4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="CA4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="CB4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CD4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="CE4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="CF4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="CG4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="CH4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="CI4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CJ4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CK4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CL4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CM4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="CN4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="CO4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="CP4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CQ4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CR4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CS4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CT4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CU4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CV4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="CW4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="CX4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="CY4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="CZ4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="DA4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="DB4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="DC4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="DD4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="DE4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="DF4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="DG4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="DH4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="DI4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="DJ4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="DK4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="DL4" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="DM4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="DN4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="DO4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="DP4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="DQ4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="DR4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="DS4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="DT4" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="DU4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="DV4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="DW4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="DX4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="DY4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DZ4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="EA4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="EB4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="EC4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="ED4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="EE4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="EF4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="EG4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="EH4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="EI4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EJ4" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EK4" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="EL4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="EM4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="EN4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="EO4" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="EP4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="EQ4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="ER4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="ES4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="ET4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="EU4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="EV4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="EW4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="EX4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="EY4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="EZ4" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="FA4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="FB4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="FC4" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="FD4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="FE4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="FF4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="FG4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="FH4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="FI4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="FJ4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="FK4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FL4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FM4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FN4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FO4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FP4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FQ4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FR4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="FS4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FT4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FU4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FV4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FW4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="FX4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="FY4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="FZ4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GA4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="GB4" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>354</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>354</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/dataset_X_correct_genes_rogue_pheno.xlsx
+++ b/file_checks/dataset_X_correct_genes_rogue_pheno.xlsx
@@ -575,508 +575,508 @@
     <t xml:space="preserve">Endo</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.160454641548533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.700412607687934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.456221897490292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.15997362105971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.506754742574595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12476516522335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.989361909544907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02969920850163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98718629947706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.182705937361383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.589088256427284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72903382664636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.779952073190096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500433758228021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54576035100544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40083284099069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94697238265472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.917098982016234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.181984427657983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.08160502772736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73546769485803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.782622128042733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0800244782449046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.3569298519601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.854765844527384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46592346182274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94706548263316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.780226179791239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.120457562273696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.602070821194561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03228158162028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.271324574045093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.125814544572731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.880542362819425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.461934693280525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.299828033889189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.816685780504997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.66665362307098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330501980524451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.402392981456595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.239337613531927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.529645860525122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.32590467575017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.95342729796313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.193820171753626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.10670826102566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.826877749787276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.414059504376237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0079065968391317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.572589910162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.734559022699293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.260400612536192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.843046483343338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.493309768894383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.602018621850943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.662918101187158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165640012795386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.766428591261632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.976431584694573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.739463990891291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.492846821648536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.596660378594127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.596756461581086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40757929246243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.114072532403761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.186931748743105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911046365992587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.18001997568401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.49262803639435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.962007180561844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.651467380639561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93964086662155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.01504633231481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.628355366627129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00670224995189028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.707503891888858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.101883941482574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.440963402082454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.62366953197683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.280218366470803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.631942761249082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00222427399385007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29127868257208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.261547289351993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14965715647245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.26147779371317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14485145118092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.007719652069361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.101261680856059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.584700944843619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.60506313629644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.947791732924676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.756112879280422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.373423315218256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.27424270683082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.155615187650498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.772491710559799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.423128248611173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4767600169377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8867404876396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.338786578680999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.46514707577196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.325688821652429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0257089518273515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.754998238586221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5216865448441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.37977136906624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.545724114513871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.340835856728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00759294055781894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.40593949664066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.234032119640689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.236904581014046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.163239789988599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.632296587576652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589324552456121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.799506557830052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04019200984038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.309495137064811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.459579437166575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657109787093216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05934241812634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.307693468584344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.636767477427584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.645609080025936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42304871516195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.346512435377349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.449314146275516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.881422776210636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.367729936633287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.763828953442881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.756261114038681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.271206646581618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00712278034997182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.509072576549646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.468473623043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.71811187360783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.773160932801221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.323449852391274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.57179910121717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.528646037398849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501602519671155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33439537266308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78075221270227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.47423440585505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.172782329541043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.53966468026332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.783256358841745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0418052906523054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.905594080237882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.97565512398668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.296993749300311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.596351278186186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.319990117218308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.06519703624199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80810234594594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.32521945488044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0163125921702485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.196709728177085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.28899129155809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.905654568237779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.168204732470544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.81651424297937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18062907223771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59038533937731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.1470149702741</t>
+    <t xml:space="preserve">2.42075739267204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.418028389706968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.00466381576821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.508409435720491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.492728309903557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24210081592076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685382734584807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.297750543869943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813361191785923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60388613043191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10056387490916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0349594932142274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.432079154453269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2651454328363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.287137870996788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.905436474051471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.349577173075493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.371433464616043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1584525423293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0662538152826615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.249185455745135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18016064250736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.215025423067693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.324945142136952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37829185610863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05616326272715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.504633618428728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.10005309861885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.469802425936709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0139482032510051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.406184246200574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.251148923052642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.484394310746568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.576577000893358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.07365749386285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.797586012771627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.397163805533814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.617815775749243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.832139526349581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.123052904949165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26738560324796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28503910928113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09733400244166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54372253308056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.709166364195585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.459820116372475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04603059482539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0295003265248751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.119017058938982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15385505851368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.960276248124738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82998502276307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.5987023564389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40188404686514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.152040225039711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.694043785911373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.60761352784561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78462909127482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.77710698421549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.15980211556943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.48203717457373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.210272789525815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.402388644396755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55163644707126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.658919374210099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.788122351331093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.603565501492673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.925780715745025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10953145688213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.640446748142498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55636746849879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0724067493300834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.783191073823584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60159952609456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0472108079322362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.630994780374899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.481324798652166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.734608209126335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168963629564898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.692409588419757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.998637518537404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.08009447881414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0579522998035216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.531457712695981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.295558697830074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.13033692599124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22700943678492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.491489339511204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25658705281311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70857046236991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26766703725815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.09600944036742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65895411041222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0257465741135916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.513236832993781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.286981918838236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.850162032453692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.535678074592446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678971141036687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.558569850537943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45105923829733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.270523591163875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.374911395813083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.266343117920273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27310908883574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.41838696521148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.497418584678625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.590717544725832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.168292136460205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.534740158174952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.26845004415796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595706998836848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76421838045643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28865458085379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.155108941958527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.463174284328445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272235512626855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.808851115707787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.12171203129492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.973655830819095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.359328231427459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0887449410574557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26719350984526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.841411135070897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240246017863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.30219542858646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.214048656718155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.968334893435232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29383469633507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.909868407714457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.272566067952814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.424057135314045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.705647760076995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.410634912231188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.1152455847049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22857258803458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.502124284065497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42180128931509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.607600961826388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85346727862999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.06984870753895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.992636068810037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.165248728829633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.42819991107452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.355914100382204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45085188669245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10877977447247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00584767206509074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.710983487353641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.613851038584835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.09258716380345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65265043532077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9186964094381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.761634000362649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.515373056395478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.445865745051331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.871220715699617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.833385903738871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.177898161134703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.980957837694713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.84418250513847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14467915615138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76855805678628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.18225565252827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0231264882465421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46010879336383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">Aris</t>
@@ -2477,34 +2477,34 @@
         <v>353</v>
       </c>
       <c r="FL2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FM2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FN2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FO2" t="s">
         <v>353</v>
       </c>
       <c r="FP2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FQ2" t="s">
         <v>354</v>
       </c>
       <c r="FR2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FS2" t="s">
         <v>353</v>
       </c>
       <c r="FT2" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU2" t="s">
         <v>353</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>354</v>
       </c>
       <c r="FV2" t="s">
         <v>353</v>
@@ -2513,10 +2513,10 @@
         <v>353</v>
       </c>
       <c r="FX2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FY2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FZ2" t="s">
         <v>354</v>
@@ -2528,7 +2528,7 @@
         <v>354</v>
       </c>
       <c r="GC2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GD2" t="s">
         <v>354</v>
@@ -3040,34 +3040,34 @@
         <v>353</v>
       </c>
       <c r="FL3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FM3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FN3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FO3" t="s">
         <v>353</v>
       </c>
       <c r="FP3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FQ3" t="s">
         <v>354</v>
       </c>
       <c r="FR3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FS3" t="s">
         <v>353</v>
       </c>
       <c r="FT3" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU3" t="s">
         <v>353</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>354</v>
       </c>
       <c r="FV3" t="s">
         <v>353</v>
@@ -3076,10 +3076,10 @@
         <v>353</v>
       </c>
       <c r="FX3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FY3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FZ3" t="s">
         <v>354</v>
@@ -3091,7 +3091,7 @@
         <v>354</v>
       </c>
       <c r="GC3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GD3" t="s">
         <v>354</v>
@@ -3603,34 +3603,34 @@
         <v>353</v>
       </c>
       <c r="FL4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FM4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FN4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FO4" t="s">
         <v>353</v>
       </c>
       <c r="FP4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FQ4" t="s">
         <v>354</v>
       </c>
       <c r="FR4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="FS4" t="s">
         <v>353</v>
       </c>
       <c r="FT4" t="s">
+        <v>354</v>
+      </c>
+      <c r="FU4" t="s">
         <v>353</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>354</v>
       </c>
       <c r="FV4" t="s">
         <v>353</v>
@@ -3639,10 +3639,10 @@
         <v>353</v>
       </c>
       <c r="FX4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FY4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="FZ4" t="s">
         <v>354</v>
@@ -3654,7 +3654,7 @@
         <v>354</v>
       </c>
       <c r="GC4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="GD4" t="s">
         <v>354</v>
